--- a/test_cases_template.xlsx
+++ b/test_cases_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="602" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="602" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist Smoke test" sheetId="5" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
   <si>
     <t>Requirements No.</t>
   </si>
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t>log</t>
-  </si>
-  <si>
-    <t>DS22</t>
   </si>
   <si>
     <t>установка</t>
@@ -431,6 +428,205 @@
     <t>КАК проверить выход из проги????</t>
   </si>
   <si>
+    <t>DESTINATION_DIR – mandatory parameter</t>
+  </si>
+  <si>
+    <t>in eng name</t>
+  </si>
+  <si>
+    <t>not exist</t>
+  </si>
+  <si>
+    <t>in rus name</t>
+  </si>
+  <si>
+    <t>the same dir as Dist</t>
+  </si>
+  <si>
+    <t>the same dir as Sorse</t>
+  </si>
+  <si>
+    <t>"-"</t>
+  </si>
+  <si>
+    <t>the subdir dir as Dist</t>
+  </si>
+  <si>
+    <t>the sub dir as Sorse</t>
+  </si>
+  <si>
+    <t>File with size more then 50 MB</t>
+  </si>
+  <si>
+    <t>not existed disk</t>
+  </si>
+  <si>
+    <t>not existed folder</t>
+  </si>
+  <si>
+    <t>not existed dick</t>
+  </si>
+  <si>
+    <t>without seporators of repositore</t>
+  </si>
+  <si>
+    <t>seporators as ","</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double spasebar seporator  </t>
+  </si>
+  <si>
+    <t>ten spasebars seporator</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>создаётся новый, если нет его</t>
+  </si>
+  <si>
+    <t>в нужном формате отображено его имя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">создаётся в том директории "converter.phar" </t>
+  </si>
+  <si>
+    <t>дополняется старый, и там есть предыд история</t>
+  </si>
+  <si>
+    <t>непонятные символы в названиии папки</t>
+  </si>
+  <si>
+    <t>непонятные символы в названии папки</t>
+  </si>
+  <si>
+    <t>empty dir</t>
+  </si>
+  <si>
+    <t>название файла на англ для каждого формата</t>
+  </si>
+  <si>
+    <t>название файла на русском для каждого формата</t>
+  </si>
+  <si>
+    <t>название файла на непонятной кодировке для каждого формата</t>
+  </si>
+  <si>
+    <t>engl name</t>
+  </si>
+  <si>
+    <t>english name of folder</t>
+  </si>
+  <si>
+    <t>only one parameter</t>
+  </si>
+  <si>
+    <t>DS2.2</t>
+  </si>
+  <si>
+    <t>DS2.3</t>
+  </si>
+  <si>
+    <t>four command line parameters</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Convector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проверить встава ли работает и ввести вручную директорию </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ </t>
+  </si>
+  <si>
+    <t>недопустимый формат кодировки</t>
+  </si>
+  <si>
+    <t>недопустимый формат документа</t>
+  </si>
+  <si>
+    <t>ввести недопустимое имя</t>
+  </si>
+  <si>
+    <t>несколько кодировок  в файле! Одновресенно</t>
+  </si>
+  <si>
+    <t>нет прав доступа к файлу</t>
+  </si>
+  <si>
+    <t>файл открыт и заблокирован</t>
+  </si>
+  <si>
+    <t>файл с атрибутами "только для чтения"</t>
+  </si>
+  <si>
+    <r>
+      <t>Converting files with encoding in name.
+Prep. Create and placed files for each format and types of document with name "TestНепонятной кодировки1?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ПЕРЕВЕСТИ ЕЁ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">" in a folder in a root of any disk. 
+1. Launch program with Determined prepared folder as a SOURCE_DIR, input any DESTINATION_DIR .
+2. Execut converting
+</t>
+    </r>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Command line</t>
+  </si>
+  <si>
+    <t>Executing convercion without log file name.
+1. Launsh the app only with two inputted correctly parameters -  SOURCE_DIR and DISTINATION_DIR</t>
+  </si>
+  <si>
+    <t>File with size exactly 50 MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">граничные условия проверять ли? </t>
+  </si>
+  <si>
+    <t>File with size less then 50 MB</t>
+  </si>
+  <si>
+    <t>файл без текста но с кодировкой допустимой</t>
+  </si>
+  <si>
+    <t>файл без текста но с кодировкой недопустимой</t>
+  </si>
+  <si>
+    <t>несколько кодировок в файле одновременно проверяемых прил</t>
+  </si>
+  <si>
+    <t>log file name указано,но не в той папке этот файл, прил должно созд новый</t>
+  </si>
+  <si>
+    <t>The third sycle Sourse dir - name in RusEngl;
+                               Dist gir - name in RusEngl.
+                       + LOG_FILE_NAME in RusEngl</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -451,9 +647,9 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> In atacments. There are Create two separat directories (one for Sourse dir, another - dist.dir) in a root of any disk:
-the first folder shold be named in engl.
-The second one schold be named in rush.
+      <t xml:space="preserve"> In atacments. * Create two separat directories (one for Sourse dir, another - dist.dir) in a root of any disk:
+the first folder shold be named in rus.
+The second one schold be named in eng.
 Palce in the first folder files in</t>
     </r>
     <r>
@@ -464,7 +660,27 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> TXT with WIN1251, CP866, KOI8R;  HTML  with WIN1251, CP866, KOI8R; MD with WIN1251, CP866, KOI8R. Size of all files is less then 50 MB. Мб разделить????</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TXT with WIN1251, CP866, KOI8R;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  HTML  with WIN1251, CP866, KOI8R; MD with WIN1251, CP866, KOI8R. Size of all files is less then 50 MB. Мб разделить????  и проверять имя документа на русском и английском распознование</t>
     </r>
     <r>
       <rPr>
@@ -475,7 +691,17 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
-1.</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> *unzip the archive in attasment.
+1. Create a log file "Result1.log"  in the folder, where File Converter is locatted</t>
     </r>
     <r>
       <rPr>
@@ -485,17 +711,59 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">unzip the archive in attasment.
-1. Launch the app$$$$$
- 2. designate as a Soursedir a path to "Sourse Dir" folder as a dist dir "DistinDir"
+      <t xml:space="preserve">
+2. Launch the app  designate as a Soursedir a path to "Sourse Dir" folder as a dist dir "DistinDir" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="3"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
 3. Execute converting.
-5.Repeat 1-3. three times more renaming Soure and Dist foldes:
-At the first sycle Sourse dir - name in rus;
-                               Dist gir - name in engl
+5.Repeat 1-3 three times more renaming Soure and Dist foldes and Log_FILE_NAME:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>At the first sycle Sourse dir - name in rus; ЭТИ ПАПКИ СОЗДАТЬ
+                               Dist gir - name in engl 
+                   +Log occation Result1.log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="3"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
 The second sycle  Sourse dir - name in rus+numbers;
                                Dist gir - name in engl+numb
+                          + LOG_FILE_NAME "Результ1"
 The third sycle Sourse dir - name in rus;
                                Dist gir - name in engl.
+                       +No LOG_FILE_NAME
 </t>
     </r>
     <r>
@@ -521,56 +789,308 @@
     </r>
   </si>
   <si>
-    <t>DESTINATION_DIR – mandatory parameter</t>
-  </si>
-  <si>
-    <t>in eng name</t>
-  </si>
-  <si>
-    <t>not exist</t>
-  </si>
-  <si>
-    <t>in rus name</t>
-  </si>
-  <si>
-    <t>the same dir as Dist</t>
-  </si>
-  <si>
-    <t>the same dir as Sorse</t>
-  </si>
-  <si>
-    <t>"-"</t>
-  </si>
-  <si>
-    <t>the subdir dir as Dist</t>
-  </si>
-  <si>
-    <t>the sub dir as Sorse</t>
-  </si>
-  <si>
-    <t>непонятные символы</t>
-  </si>
-  <si>
-    <t>File with size more then 50 MB</t>
-  </si>
-  <si>
-    <t>not existed disk</t>
-  </si>
-  <si>
-    <t>not existed folder</t>
-  </si>
-  <si>
-    <t>not existed dick</t>
-  </si>
-  <si>
-    <t>разделители не те, нет, репозитории слить вместе, разделить запятой</t>
+    <t>TXT format</t>
+  </si>
+  <si>
+    <t>UTF8 в UTF8, что будет</t>
+  </si>
+  <si>
+    <t>DS2.2 прил закрываетсяя</t>
+  </si>
+  <si>
+    <r>
+      <t>3.  -Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
+     - All *.txt files from SOURCE_DIR is in DESTINATION_DIR (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>They schould be copping or replaced?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) Encoding WIN1251, CP866, KOI8R  is converted in UTF8 (readable text is in all files). Recult files is with *.txt expenction.  
+    - File "Result.log" contained new recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.</t>
+    </r>
+  </si>
+  <si>
+    <t>DS-5.1</t>
+  </si>
+  <si>
+    <t>пустые файлы совсем во всех форматах допустимых. Прил не должно их обрабатывать</t>
+  </si>
+  <si>
+    <r>
+      <t>3.  -Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
+     - All *.html files from SOURCE_DIR is in DESTINATION_DIR (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>They schould be copping or replaced?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) Encoding WIN1251, CP866, KOI8R  is converted in UTF8 (readable text is in all files). Recult files is with *.html expenction.  
+    - File "Результат1" contained new recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.</t>
+    </r>
+  </si>
+  <si>
+    <t>HTML format</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Converting TXT format files in target encoding. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Prep.: Unzip an archive in attacments. Folders "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SoursDir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>DistinDir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">" will be there.
+1. Create a log file "Result1.log"  in the folder, where File Converter is locatted.
+2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder, for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - folders in attechments. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SOURCE_DIR containes 8 txt files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">). 
+3. Execute converting.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>At the first sycle Sourse dir - name in rus;
+                               Dist gir - name in engl.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">   ЭТИ ПАПКИ СОЗДАТЬ, кол файлов такое же как выделено и имена папок такие же</t>
+    </r>
+  </si>
+  <si>
+    <t>с очень большим кол файлов</t>
+  </si>
+  <si>
+    <t>MD format</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Converting HTML format files in target encoding. 
+Prep.: Unzip an archive in attacments. Folders "SoursDir", "DistinDir" will be there.
+1. Create a log file "Результ1"  in the folder, where File Converter is locatted.
+2. Rename Folders "SoursDir", "DistinDir" from uziped archive to folders with name:                     SoursDir - name in rus+numbs;
+                               DistinDir - name in eng+numb.
+2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder, for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - unziped folders and renamed. SOURCE_DIR containes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>8 html files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">). 
+3. Execute converting.
+                     </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.  -Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
+     - All *.md files from SOURCE_DIR is in DESTINATION_DIR (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>They schould be copping or replaced?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) Encoding WIN1251, CP866, KOI8R  is converted in UTF8 (readable text is in all files). Recult files is with *.md expenction.  
+    - File "converter.log" is created in the folder, there File Converter is loccated.
+    - "converter.log"containes recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.</t>
+    </r>
+  </si>
+  <si>
+    <t>разные размеры файлов хапихнуть</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Converting MD format files in target encoding. 
+Prep.: Unzip an archive in attacments. Folders "SoursDir", "DistinDir" will be there.
+1. Delite previous log file (if  it exists) in the folder, the File Converter is loccated.Don't create new log file.
+2. Rename Folders "SoursDir", "DistinDir" from uziped archive to folders with name:                     SoursDir - name in eng;
+                               DistinDir - name in rus.
+2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder, for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - unziped folders and renamed. SOURCE_DIR containes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>8 md files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">). 
+3. Execute converting.
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -689,8 +1209,37 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,7 +1248,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -716,12 +1277,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -745,6 +1324,76 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -753,15 +1402,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -808,18 +1482,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -832,13 +1512,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="40% — акцент4" xfId="4" builtinId="43"/>
-    <cellStyle name="60% — акцент2" xfId="1" builtinId="36"/>
-    <cellStyle name="60% — акцент3" xfId="2" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="3" builtinId="41"/>
+  <cellStyles count="10">
+    <cellStyle name="20% — акцент2" xfId="1" builtinId="34"/>
+    <cellStyle name="20% — акцент4" xfId="6" builtinId="42"/>
+    <cellStyle name="20% — акцент5" xfId="8" builtinId="46"/>
+    <cellStyle name="20% — акцент6" xfId="9" builtinId="50"/>
+    <cellStyle name="40% — акцент3" xfId="3" builtinId="39"/>
+    <cellStyle name="40% — акцент4" xfId="7" builtinId="43"/>
+    <cellStyle name="60% — акцент2" xfId="2" builtinId="36"/>
+    <cellStyle name="60% — акцент3" xfId="4" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="5" builtinId="41"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1141,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I13"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1159,10 +1907,10 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -1170,48 +1918,48 @@
         <v>7</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="28"/>
       <c r="H2" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>35</v>
+      <c r="F4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -1227,71 +1975,71 @@
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="2:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D7" s="18"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="27" t="s">
+      <c r="H7" s="32" t="s">
         <v>40</v>
       </c>
+      <c r="I7" s="31" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="29"/>
+      <c r="E8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="29"/>
+      <c r="E9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="29"/>
+      <c r="E10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D11" s="26" t="s">
-        <v>37</v>
+      <c r="D11" s="30" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -1305,6 +2053,39 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C13" s="16" t="s">
         <v>10</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1324,8 +2105,9 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="64" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="64" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1334,8 +2116,8 @@
     <col min="2" max="2" width="9.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="34" style="10" customWidth="1"/>
+    <col min="5" max="5" width="59.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="53.28515625" style="10" customWidth="1"/>
     <col min="7" max="7" width="38.5703125" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1363,7 +2145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="351.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
@@ -1373,19 +2155,19 @@
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>44</v>
+      <c r="E2" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="14"/>
     </row>
@@ -1393,16 +2175,54 @@
       <c r="A4" s="6"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
+      <c r="C6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
+      <c r="D7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1570,10 +2390,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J15"/>
+  <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1581,149 +2401,365 @@
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="D6" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="D7" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="B25" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="55"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="55"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="36"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="37"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="37"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="46" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="B38" s="47"/>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1735,7 +2771,9 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1772,12 +2810,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/test_cases_template.xlsx
+++ b/test_cases_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="602" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="602" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist Smoke test" sheetId="5" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="128">
   <si>
     <t>Requirements No.</t>
   </si>
@@ -531,9 +531,6 @@
   </si>
   <si>
     <t>Document</t>
-  </si>
-  <si>
-    <t>Convector</t>
   </si>
   <si>
     <t xml:space="preserve">проверить встава ли работает и ввести вручную директорию </t>
@@ -1024,34 +1021,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>3.  -Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
-     - All *.md files from SOURCE_DIR is in DESTINATION_DIR (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>They schould be copping or replaced?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) Encoding WIN1251, CP866, KOI8R  is converted in UTF8 (readable text is in all files). Recult files is with *.md expenction.  
-    - File "converter.log" is created in the folder, there File Converter is loccated.
-    - "converter.log"containes recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.</t>
-    </r>
-  </si>
-  <si>
     <t>разные размеры файлов хапихнуть</t>
   </si>
   <si>
@@ -1085,12 +1054,281 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Log file</t>
+  </si>
+  <si>
+    <t>Converter</t>
+  </si>
+  <si>
+    <r>
+      <t>3.  -Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
+     - All *.md files from SOURCE_DIR is in DESTINATION_DIR (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>They schould be copping or replaced?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) WIN1251, CP866, KOI8R encoding   is converted in UTF8 (readable text is in all files). Recult files is with *.md expenction.  
+    - File "converter.log" is created in the folder, there File Converter is loccated.
+    - "converter.log"containes recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Specified log file nameis  not exists in the directory,where File Converter is located.
+Prep.:Delete preveous log file.
+1. Create new log file in a folder whrere File Convertter is not l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ocatted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. 
+2. Launch the app with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>correct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> SOURCE_DIR (there is TXT/HTML/MD files with WIN1251, CP866, KOI8R encoding)  and DESTINATION_DIR, as a log file determine name of  file,created in step 1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. -Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
+    - File "NewЛогФЯЪ109.log" is created in the folder, there File Converter is loccated.
+    - "NewЛогФЯЪ109.log"containes recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.
+    - Preveous log file do not contain new record.
+    -All files from SOURCE_DIR is in DESTINATION_DIR (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>They schould be copping or replaced?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) WIN1251, CP866, KOI8R encoding   is converted in UTF8 (readable text is in all files)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. -Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
+    - File "converter.log" is created in the folder, there File Converter is loccated.
+    - "converter.log"containes recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.
+    -File created in step one is empty.
+    -All files from SOURCE_DIR is in DESTINATION_DIR (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>They schould be copping or replaced?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) WIN1251, CP866, KOI8R encoding   is converted in UTF8 (readable text is in all files)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SOURCE_DIR, DESTINATION_DIR and  LOG_FILE_NAME have name in Russian and English and numbers.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Prep.: -Create two folder with different name both with words in Russian and English and numbers. At the first folder place  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">TXT,HTML,MD files with each encording:WIN1251, CP866, KOI8R. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>The folder is SOURCE_DIR. The second - DESTINATION_DIR. It isn't  inside the source directory or any its subdirectories.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+          -Do not delete preveous log file and create new log file"NewЛогФЯЪ109.log" in a folder whrere File Convertter is locatted.
+1. Launch the app with the folder as SOURCE_DIR, DESTINATION_DIR, "NewЛогФЯЪ109.log" as LOG_FILE_NAME. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">name of folders </t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <r>
+      <t>1.Shutting down of application and displaying standard usage-message  :“USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME” (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>The massege is in concole or as window? Where the message are displaying? What firs: Shutting down or displaying?What should be recorded in log file?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one parameter is determined - a folder with files inside.
+Prep.: Create any folder as SOURCE_DIR with  TXT,HTML,MD files with each encording:WIN1251, CP866, KOI8R
+1.Launch the app determine only the SOURCE_DIR as parameter.
+</t>
+  </si>
+  <si>
+    <t>Only one parameter is determined- an empty directory.
+1.Launch the app with one parameter - emty directory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four parameters are determined.
+Prep.: Create any folder as SOURCE_DIR with  TXT,HTML,MD files with each encording:WIN1251, CP866, KOI8R. 
+1. Launch the app with SOURCE_DIR, DESTINATION_DIR,  LOG_FILE_NAME , FOURTH_PARAMETER
+DESTINATION_DIR  isn't  inside the source directory or any its subdirectories. 
+Log file is located in the folder, where File Converter is located. 
+FOURTH_PARAMETER - any directory.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>1.-Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
+    - File "NewЛогФЯЪ109.log" is created in the folder, there File Converter is loccated.
+    - Log file containes recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.
+    -All files from SOURCE_DIR is in DESTINATION_DIR (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>They schould be copping or replaced?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) WIN1251, CP866, KOI8R encoding   is converted in UTF8 (readable text is in all files)
+   -Folder was determined as FOURTH_PARAMETER not be chenged and not contain some extraneous files.
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1163,6 +1401,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1226,6 +1472,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1238,13 +1491,25 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1297,6 +1562,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1423,19 +1694,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1480,39 +1752,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1522,72 +1795,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="20% — акцент2" xfId="1" builtinId="34"/>
-    <cellStyle name="20% — акцент4" xfId="6" builtinId="42"/>
-    <cellStyle name="20% — акцент5" xfId="8" builtinId="46"/>
-    <cellStyle name="20% — акцент6" xfId="9" builtinId="50"/>
-    <cellStyle name="40% — акцент3" xfId="3" builtinId="39"/>
-    <cellStyle name="40% — акцент4" xfId="7" builtinId="43"/>
-    <cellStyle name="60% — акцент2" xfId="2" builtinId="36"/>
-    <cellStyle name="60% — акцент3" xfId="4" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="5" builtinId="41"/>
+  <cellStyles count="11">
+    <cellStyle name="20% — акцент2" xfId="2" builtinId="34"/>
+    <cellStyle name="20% — акцент4" xfId="7" builtinId="42"/>
+    <cellStyle name="20% — акцент5" xfId="9" builtinId="46"/>
+    <cellStyle name="20% — акцент6" xfId="10" builtinId="50"/>
+    <cellStyle name="40% — акцент3" xfId="4" builtinId="39"/>
+    <cellStyle name="40% — акцент4" xfId="8" builtinId="43"/>
+    <cellStyle name="60% — акцент2" xfId="3" builtinId="36"/>
+    <cellStyle name="60% — акцент3" xfId="5" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="6" builtinId="41"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2055,12 +2355,12 @@
         <v>10</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -2105,9 +2405,9 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="64" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="64" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2156,7 +2456,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
@@ -2177,22 +2477,22 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="14"/>
     </row>
@@ -2202,26 +2502,26 @@
         <v>77</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="D7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G7" s="14"/>
     </row>
@@ -2390,351 +2690,388 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J38"/>
+  <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="2" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="16" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="72"/>
+      <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="D6" s="16" t="s">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="65"/>
+      <c r="E7" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="60"/>
-      <c r="D7" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="68"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="68"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="C21" s="68"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C25" s="68"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="40" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C26" s="68"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C27" s="68"/>
+      <c r="F27" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="40" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C28" s="68"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="40" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C29" s="68"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C30" s="68"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="45" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="55"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
+      <c r="C31" s="68"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="70"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="56"/>
+      <c r="C33" s="70"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="55"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+      <c r="C34" s="68"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="36"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="37"/>
+      <c r="C35" s="71"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="37"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="38"/>
+      <c r="C36" s="71"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="37"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="46" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="71"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2772,7 +3109,8 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2781,8 +3119,8 @@
     <col min="2" max="2" width="9.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="34" style="10" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" style="10" customWidth="1"/>
     <col min="7" max="7" width="16" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -2810,57 +3148,118 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
+      <c r="C4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
+      <c r="C6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
+      <c r="C7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
+      <c r="C8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="G9" s="14"/>
     </row>

--- a/test_cases_template.xlsx
+++ b/test_cases_template.xlsx
@@ -13,20 +13,20 @@
     <sheet name="Critical Path test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_076E216B_083E_4703_B60A_D13E6F869911_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_082914DE_9BEF_4308_9DE4_FA5DD1E31CC1_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_08B424B6_41BA_4DCE_BBD3_51945A45BE64_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_0D273C76_6366_4301_AD32_22F4637E447E_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_0D27DA27_04C0_4697_AF88_60E49E3B520D_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
-    <definedName name="Z_10742954_85DC_41BF_95C5_974CA284DD52_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_10742954_85DC_41BF_95C5_974CA284DD52_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_116720F1_EEAC_4D84_BB27_D5A6A3F3078E_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_150981C5_D6BA_4460_9AE5_D129261C65C2_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
-    <definedName name="Z_1521F199_6F51_4B96_AF69_DFD6E5A59948_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_1521F199_6F51_4B96_AF69_DFD6E5A59948_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_155A2797_6A59_4BC9_9418_C86809FE2A76_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_1642222A_E978_431B_A276_AC11260CDF6A_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
-    <definedName name="Z_18E12BE6_5BE0_4DEE_9AD7_0A6C822D5D1E_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_18E12BE6_5BE0_4DEE_9AD7_0A6C822D5D1E_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_190A9DA7_F7A3_11D6_8372_00A0C9A45549_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_190A9DAC_F7A3_11D6_8372_00A0C9A45549_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_19C410EA_0215_4C4F_8E70_1BA586AFCC14_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$B$1:$B$1</definedName>
@@ -43,7 +43,7 @@
     <definedName name="Z_20F15AE4_BB0F_4D2F_92CD_6555EFFD634F_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_215F7C28_7EBA_4FFE_8446_E3B3606F5677_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_2534AD3F_F292_40B6_A4A5_4447C5F2D534_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
-    <definedName name="Z_25E61601_54D4_4DF5_9420_10EEDDEB8CD0_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_25E61601_54D4_4DF5_9420_10EEDDEB8CD0_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_26053C6E_BED6_41EA_8F3E_71A27999119C_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_298F2EE3_97E3_11D6_83F5_0003470A98B2_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_298F2EE5_97E3_11D6_83F5_0003470A98B2_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
@@ -63,7 +63,7 @@
     <definedName name="Z_338074CA_E267_11D6_835F_00A0C9A45549_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_33E499A9_C514_4463_9D4F_E656C07E11F3_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$B$1:$B$1</definedName>
     <definedName name="Z_34229D04_7409_4F69_9D94_8AC3B7BE4235_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
-    <definedName name="Z_38DD1442_24D9_4DA6_B8D0_BF77726EC80E_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_38DD1442_24D9_4DA6_B8D0_BF77726EC80E_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_3B2FDBA4_87C2_4F65_B9F7_3940A1C730FE_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_3B8911D5_7843_4FC6_9696_0DEF6B150621_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_3B9C9234_CAD4_4D2F_A608_6EE4D068EA6A_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
@@ -71,7 +71,7 @@
     <definedName name="Z_3CB96B1B_B014_4B85_A883_CCD24970E730_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_3E98E84F_DE56_410D_AA8E_A0C8C093390B_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$B$1:$B$1</definedName>
     <definedName name="Z_3EDD5E42_79E4_11D6_8216_009027651E6D_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
-    <definedName name="Z_4004633E_3EB7_4A71_9B54_33CE8E2476D0_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_4004633E_3EB7_4A71_9B54_33CE8E2476D0_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_40765E5D_8E4D_4EBD_841D_B3BCC0D26A90_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_4093189C_3129_4D91_950C_4930C9EAAD75_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_409BEDCA_07FB_4362_B5FC_2CCFD1B33BFB_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
@@ -82,8 +82,8 @@
     <definedName name="Z_497CDFBC_BC24_4493_823C_8715DDDB194A_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_49B88D39_760F_49FE_9089_8995DAD8FC78_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_4B0A933D_07FE_4CA2_B4FC_79E22BCB1563_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
-    <definedName name="Z_4BC641D9_44D1_48CA_A2E8_D60FF2D16BA5_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
-    <definedName name="Z_4BD80E6A_F19B_488D_A100_857C2CB69C3E_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_4BC641D9_44D1_48CA_A2E8_D60FF2D16BA5_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
+    <definedName name="Z_4BD80E6A_F19B_488D_A100_857C2CB69C3E_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_4BF74373_06CF_11D7_8299_009027651E6D_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_4BF74376_06CF_11D7_8299_009027651E6D_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_4CC69DA4_B98F_11D6_8468_009027ED1955_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
@@ -102,7 +102,7 @@
     <definedName name="Z_5993E09E_C0E9_42E0_992F_E19006AFF5B2_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_5A6D0686_9738_46B6_B40A_F9C1292DDE09_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_5F0BDA38_467D_43D0_AFF6_BD58C644CA07_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
-    <definedName name="Z_5F45B89A_43AE_47CB_B4C3_C5F41EE6F1B4_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_5F45B89A_43AE_47CB_B4C3_C5F41EE6F1B4_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_610E9A8B_D744_406E_9233_462E4B2D977E_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_61B848E0_F845_4930_B6B1_AE54A626711C_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_63383682_6E23_11D6_82E5_00A0C9A45549_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
@@ -128,17 +128,17 @@
     <definedName name="Z_7675A249_C48A_11D6_8476_009027ED1955_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_7675A24B_C48A_11D6_8476_009027ED1955_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_76FD369A_CE8D_4317_961B_7437B6E1ADA4_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
-    <definedName name="Z_782E29AF_2A40_4FC5_B31B_742BB284FEFE_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_782E29AF_2A40_4FC5_B31B_742BB284FEFE_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_784A4D2A_3284_4A8B_870F_1604DAEB072F_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
-    <definedName name="Z_793AC649_9D45_4710_99AE_B9C7A7B5C0E0_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
-    <definedName name="Z_79405AD8_F17F_4C57_9485_033BC3E5DB29_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_793AC649_9D45_4710_99AE_B9C7A7B5C0E0_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
+    <definedName name="Z_79405AD8_F17F_4C57_9485_033BC3E5DB29_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_7A14BA68_1AD1_4B5D_8562_6542143CD4A2_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_7BB5586D_F8DA_4286_B856_F6D48BFC67EC_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_7CD7CA53_BB22_11D6_841E_0003470A98B2_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_7CD7CA55_BB22_11D6_841E_0003470A98B2_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_7DB709A3_B05C_4BDF_9940_7B4164498565_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_7F43198E_AEB4_4B2B_A204_B31C1DAF0612_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
-    <definedName name="Z_7FEEB23E_9B4F_4161_A01D_4E0E62555D50_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_7FEEB23E_9B4F_4161_A01D_4E0E62555D50_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_7FF35F33_9949_4D85_9EC7_D06D3DF0FD09_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_82666A53_BFCF_11D6_8472_009027ED1955_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_82CB83AA_FB92_11D6_8376_00A0C9A45549_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
@@ -150,7 +150,7 @@
     <definedName name="Z_845F4067_DCDD_11D6_835A_00A0C9A45549_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_876745B6_B66D_11D6_8466_009027ED1955_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_87B21F02_EFDF_11D6_8277_009027651E6D_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
-    <definedName name="Z_8A3AABE0_F8AF_4EAE_8F30_89A1B8FEDCBC_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_8A3AABE0_F8AF_4EAE_8F30_89A1B8FEDCBC_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_8B1E9C6C_6EE0_11D6_82E6_00A0C9A45549_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_8BC8433F_BD44_42F6_ABF1_D600CDA6814E_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_8EF7F386_5E51_4F8D_A999_0ADCED76F401_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
@@ -162,7 +162,7 @@
     <definedName name="Z_95B1AE55_5A09_43C3_B842_92A6A8CBB4FF_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_9DB4E31D_4D0C_4D4A_9B0E_5CB499C8FCE0_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_9DC25E1A_7C77_11D6_8428_009027ED1955_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
-    <definedName name="Z_9E0603F2_17C3_46DE_96C7_2B055B19C810_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_9E0603F2_17C3_46DE_96C7_2B055B19C810_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_9E29624A_918B_446F_BAE8_4FE6993177DA_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$72</definedName>
     <definedName name="Z_9F54D8CA_F7CA_4FBD_A510_4B321446D110_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_A03BC55B_97AE_49A8_AC72_55FE44CD9CC7_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
@@ -190,7 +190,7 @@
     <definedName name="Z_B1201F92_721E_11D6_83D1_0003470A98B2_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_B1201F94_721E_11D6_83D1_0003470A98B2_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_B3376F5F_9342_4FE3_B88E_37813E471B56_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
-    <definedName name="Z_B34DDB5F_F5C1_4B53_A698_ED068265A80A_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_B34DDB5F_F5C1_4B53_A698_ED068265A80A_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_B3B78B55_F23F_4975_8147_E339DE956271_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_B572C60E_2FE3_4505_8D16_F47BC00CAD64_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_B6B3B788_0059_11D7_91C5_009027ED19A4_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
@@ -215,7 +215,7 @@
     <definedName name="Z_CD0A5058_1296_4D68_8710_49F9D884EDE7_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_CEF471D2_B5D2_4065_AF99_BD425F204B07_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$A$1:$F$67</definedName>
     <definedName name="Z_CFB3C796_8AEC_4B3E_A039_80D09F3D2C5B_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
-    <definedName name="Z_D0177061_A217_49C2_8125_93EF8BE93AE1_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_D0177061_A217_49C2_8125_93EF8BE93AE1_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_D066A59E_81DA_11D6_842C_009027ED1955_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_D066A5AF_81DA_11D6_842C_009027ED1955_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_D066A5B2_81DA_11D6_842C_009027ED1955_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
@@ -246,7 +246,7 @@
     <definedName name="Z_DBE7F2B1_9256_43D2_BB21_88117D04D3F6_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_DDDC66C1_AB8D_4A01_8BEA_37527371B671_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_E0A36D26_A7D1_43E8_B670_231D68B72352_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
-    <definedName name="Z_E3B2859F_7E79_4251_ADE3_5D625F105F3F_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_E3B2859F_7E79_4251_ADE3_5D625F105F3F_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_E43C6B59_C32D_445E_8F57_6ACAA7238645_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_E50DE71B_859D_4D58_B89C_04AB45501C73_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_E5EFDBB2_A9D3_11D6_8456_009027ED1955_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
@@ -257,10 +257,10 @@
     <definedName name="Z_E71CD342_DF3F_4587_AAA7_4C45D698A84E_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_E76D4AB4_D6E2_48EE_B227_5C245F2C12FA_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_EA621B97_0FE5_4F26_9FDC_C15C8277A182_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
-    <definedName name="Z_EAF3FAA5_36D1_4B73_8882_36E8A47ADFF8_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
-    <definedName name="Z_ECB74D8E_9F8C_4B99_B8FD_5DF8448BF049_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
-    <definedName name="Z_ED2E9076_6702_4C91_82C3_FE67E109266F_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
-    <definedName name="Z_ED34FEAD_C443_458A_B34C_5CFFBF0982EE_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$3</definedName>
+    <definedName name="Z_EAF3FAA5_36D1_4B73_8882_36E8A47ADFF8_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
+    <definedName name="Z_ECB74D8E_9F8C_4B99_B8FD_5DF8448BF049_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
+    <definedName name="Z_ED2E9076_6702_4C91_82C3_FE67E109266F_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
+    <definedName name="Z_ED34FEAD_C443_458A_B34C_5CFFBF0982EE_.wvu.FilterData" localSheetId="3" hidden="1">'Critical Path test'!$A$1:$F$5</definedName>
     <definedName name="Z_EF73ACFD_E96B_407E_8441_2B9D34F8C6CD_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!#REF!</definedName>
     <definedName name="Z_F079D6D2_6FAA_11D6_82E7_00A0C9A45549_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$G$1:$G$1</definedName>
     <definedName name="Z_F4109F33_260A_4792_B916_486D7E09C187_.wvu.FilterData" localSheetId="1" hidden="1">'Smoke test'!$B$1:$B$1</definedName>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
   <si>
     <t>Requirements No.</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESTINATION_DIR </t>
   </si>
   <si>
     <t xml:space="preserve">parametr of SOURCE_DIR </t>
@@ -443,18 +446,6 @@
     <t>the same dir as Dist</t>
   </si>
   <si>
-    <t>the same dir as Sorse</t>
-  </si>
-  <si>
-    <t>"-"</t>
-  </si>
-  <si>
-    <t>the subdir dir as Dist</t>
-  </si>
-  <si>
-    <t>the sub dir as Sorse</t>
-  </si>
-  <si>
     <t>File with size more then 50 MB</t>
   </si>
   <si>
@@ -473,9 +464,6 @@
     <t>seporators as ","</t>
   </si>
   <si>
-    <t xml:space="preserve">double spasebar seporator  </t>
-  </si>
-  <si>
     <t>ten spasebars seporator</t>
   </si>
   <si>
@@ -497,9 +485,6 @@
     <t>непонятные символы в названиии папки</t>
   </si>
   <si>
-    <t>непонятные символы в названии папки</t>
-  </si>
-  <si>
     <t>empty dir</t>
   </si>
   <si>
@@ -507,15 +492,6 @@
   </si>
   <si>
     <t>название файла на русском для каждого формата</t>
-  </si>
-  <si>
-    <t>название файла на непонятной кодировке для каждого формата</t>
-  </si>
-  <si>
-    <t>engl name</t>
-  </si>
-  <si>
-    <t>english name of folder</t>
   </si>
   <si>
     <t>only one parameter</t>
@@ -589,13 +565,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>Command line</t>
-  </si>
-  <si>
-    <t>Executing convercion without log file name.
-1. Launsh the app only with two inputted correctly parameters -  SOURCE_DIR and DISTINATION_DIR</t>
   </si>
   <si>
     <t>File with size exactly 50 MB</t>
@@ -858,201 +827,13 @@
     <t>HTML format</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Converting TXT format files in target encoding. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Prep.: Unzip an archive in attacments. Folders "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SoursDir</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>DistinDir</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">" will be there.
-1. Create a log file "Result1.log"  in the folder, where File Converter is locatted.
-2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder, for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - folders in attechments. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SOURCE_DIR containes 8 txt files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">). 
-3. Execute converting.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>At the first sycle Sourse dir - name in rus;
-                               Dist gir - name in engl.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">   ЭТИ ПАПКИ СОЗДАТЬ, кол файлов такое же как выделено и имена папок такие же</t>
-    </r>
-  </si>
-  <si>
     <t>с очень большим кол файлов</t>
   </si>
   <si>
     <t>MD format</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Converting HTML format files in target encoding. 
-Prep.: Unzip an archive in attacments. Folders "SoursDir", "DistinDir" will be there.
-1. Create a log file "Результ1"  in the folder, where File Converter is locatted.
-2. Rename Folders "SoursDir", "DistinDir" from uziped archive to folders with name:                     SoursDir - name in rus+numbs;
-                               DistinDir - name in eng+numb.
-2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder, for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - unziped folders and renamed. SOURCE_DIR containes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>8 html files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">). 
-3. Execute converting.
-                     </t>
-    </r>
-  </si>
-  <si>
     <t>разные размеры файлов хапихнуть</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Converting MD format files in target encoding. 
-Prep.: Unzip an archive in attacments. Folders "SoursDir", "DistinDir" will be there.
-1. Delite previous log file (if  it exists) in the folder, the File Converter is loccated.Don't create new log file.
-2. Rename Folders "SoursDir", "DistinDir" from uziped archive to folders with name:                     SoursDir - name in eng;
-                               DistinDir - name in rus.
-2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder, for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - unziped folders and renamed. SOURCE_DIR containes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>8 md files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">). 
-3. Execute converting.
-</t>
-    </r>
   </si>
   <si>
     <t>Log file</t>
@@ -1087,6 +868,9 @@
     - File "converter.log" is created in the folder, there File Converter is loccated.
     - "converter.log"containes recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.</t>
     </r>
+  </si>
+  <si>
+    <t>SOURCE_DIR</t>
   </si>
   <si>
     <r>
@@ -1165,35 +949,6 @@
   </si>
   <si>
     <r>
-      <t>2. -Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
-    - File "converter.log" is created in the folder, there File Converter is loccated.
-    - "converter.log"containes recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.
-    -File created in step one is empty.
-    -All files from SOURCE_DIR is in DESTINATION_DIR (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>They schould be copping or replaced?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) WIN1251, CP866, KOI8R encoding   is converted in UTF8 (readable text is in all files)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
@@ -1249,31 +1004,6 @@
   </si>
   <si>
     <t>parameter</t>
-  </si>
-  <si>
-    <r>
-      <t>1.Shutting down of application and displaying standard usage-message  :“USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME” (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>The massege is in concole or as window? Where the message are displaying? What firs: Shutting down or displaying?What should be recorded in log file?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Only one parameter is determined - a folder with files inside.
@@ -1295,8 +1025,266 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>1.-Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
+    <t>files to convert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Converting TXT format files in target encoding. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Prep.: Unzip an archive in attacments. Folders "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SoursDir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>DistinDir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">" will be there.
+1. Create a log file "Result1.log"  in the folder, where File Converter is locatted.
+2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder, for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - folders in attechments. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SOURCE_DIR containes 3 txt files in Rus and Engl+имя   файла на допустимой кодировке</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">). 
+3. Execute converting.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>At the first sycle Sourse dir - name in rus;
+                               Dist gir - name in engl.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">   ЭТИ ПАПКИ СОЗДАТЬ, кол файлов такое же как выделено и имена папок такие же</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Converting HTML format files in target encoding. 
+Prep.: Unzip an archive in attacments. Folders "SoursDir", "DistinDir" will be there.
+1. Create a log file "Результ1"  in the folder, where File Converter is locatted.
+2. Rename Folders "SoursDir", "DistinDir" from uziped archive to folders with name:                     SoursDir - name in rus+numbs;
+                               DistinDir - name in eng+numb.
+2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder ( (the path should be inputed using "Ctrl+V" - copping path from Total Commander or simelar way), for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - unziped folders and renamed. SOURCE_DIR containes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3 html files  in Rus and Engl+ имя на поддерживаемой кодировке</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">). 
+3. Execute converting.
+                     </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Converting MD format files in target encoding. 
+Prep.: Unzip an archive in attacments. Folders "SoursDir", "DistinDir" will be there.
+1. Delite previous log file (if  it exists) in the folder, the File Converter is loccated.Don't create new log file.
+2. Rename Folders "SoursDir", "DistinDir" from uziped archive to folders with name:                     SoursDir - name in eng;
+                               DistinDir - name in rus.
+2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder (the path should be inputed manually), for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - unziped folders and renamed. SOURCE_DIR containes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3 md files  in Rus and Engl + поддерживаемая кодировка</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">). 
+3. Execute converting.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>название файла на допустимой кодировке для каждого формата</t>
+  </si>
+  <si>
+    <t>File encoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsupported format to convert.
+Prep.: Create any folder as SOURCE_DIR with  TXT,HTML,MD files with ASCII encording:. 
+1. Launch the app with SOURCE_DIR, DESTINATION_DIR,  LOG_FILE_NAME.
+DESTINATION_DIR  isn't  inside the source directory or any its subdirectories. 
+LOG_FILE_NAME - log file is located in the folder, where File Converter is located. 
+</t>
+  </si>
+  <si>
+    <t>существующая папка, но имя неверно</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1.-Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
+        - Log file containes new recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.
+    -All files from SOURCE_DIR is in DESTINATION_DIR (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>They schould be copping or replaced?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) Text   is converted in UTF8 (readable text is in all files) (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>check with the customer the result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1.-Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
     - File "NewЛогФЯЪ109.log" is created in the folder, there File Converter is loccated.
     - Log file containes recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.
     -All files from SOURCE_DIR is in DESTINATION_DIR (</t>
@@ -1322,6 +1310,702 @@
    -Folder was determined as FOURTH_PARAMETER not be chenged and not contain some extraneous files.
 </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1.Shutting down of application and displaying standard usage-message  :“USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME” (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>The massege is in concole or as window? Where the message are displaying? What firs: Shutting down or displaying?What should be recorded in log file?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+2. -Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
+    - File "converter.log" is created in the folder, there File Converter is loccated.
+    - "converter.log"containes recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.
+    -File created in step one is empty.
+    -All files from SOURCE_DIR is in DESTINATION_DIR (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>They schould be copping or replaced?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) WIN1251, CP866, KOI8R encoding   is converted in UTF8 (readable text is in all files)</t>
+    </r>
+  </si>
+  <si>
+    <t>Закрытие с контрал С добавить!!!!!!</t>
+  </si>
+  <si>
+    <r>
+      <t>1.Shutting down of application and displaying standard usage-message  :“USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME”  (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>The massege is in concole or as window? Where the message are displaying? What firs: Shutting down or displaying?What should be recorded in log file?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1-2. Shutting down of application and displaying standard usage-message  : “USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME " + messsage at the next format : DESTINATION_DIR value of DESTINATION_DIR  "Directory not exists or inaccessible " ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Where the message are displaying? What firs: Shutting down or displaying? What should be recorded in log file?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1-2. Shutting down of application and displaying standard usage-message  : “USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME " + messsage at the next format : SOURCE_DIR value of SOURCE_DIR  "Directory not exists or inaccessible " ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Where the message are displaying? What firs: Shutting down or displaying? What should be recorded in log file?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>В корне файла директории</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Shutting down of application and displaying standard usage-message  : “USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME " + messsage at the next format : DESTINATION_DIR value of DESTINATION_DIR  "Directory not exists or inaccessible " ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Where the message are displaying? What firs: Shutting down or displaying? What should be recorded in log file?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>Not existed disk as SOURCE_DIR.
+1. Launch the app with SOURCE_DIR, DESTINATION_DIR.
+   In SOURCE_DIR is spesified a disk  isn't existed on the computer.
+   DESTINATION_DIR any folder on the computer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several sepported encoding is in a document.
+Prep.: Create any folder as SOURCE_DIR with  TXT,HTML,MD files with text in two encoding on each of them. 
+1. Launch the app with SOURCE_DIR, DESTINATION_DIR.
+  DESTINATION_DIR  isn't  inside the source directory or any its subdirectories. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURCE_DIR is not existed folder.
+1. Launch the app with SOURCE_DIR, DESTINATION_DIR.
+SOURCE_DIR is a dir with mistake in name of folder or other inaccuracy, so the dir  isn't exist on computer.
+ DESTINATION_DIR any folder on the computer .
+2. Repeat step1, but input a correct name of folders, the mistake is chenging  "\" to "/". </t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Shutting down of application and displaying standard usage-message  : “USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME " + messsage at the next format : SOURCE_DIR value of SOURCE_DIR  + message (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>check with the customer)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Where the message are displaying? What firs: Shutting down or displaying? What should be recorded in log file?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>SOURCE_DIR does not containe files.
+1. Launch the app with SOURCE_DIR, DESTINATION_DIR.
+   SOURCE_DIR is a path to an empty foder.
+   DESTINATION_DIR any folder on the computer.</t>
+  </si>
+  <si>
+    <t>DESTINATION_DIR is not existed folder.
+1. Launch the app with SOURCE_DIR, DESTINATION_DIR.
+  DESTINATION_DIR is a dir with mistake in name of folder or other inaccuracy, so the dir  isn't exist on computer.
+  SOURCE_DIR any folder on the computer with some files inside.
+2. Repeat step1, but input a correct name of both folders, only chenge  all "\" to "/" on each of folders path.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Shutting down of application and displaying standard usage-message  : “USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME " + messsage at the next format : SOURCE_DIR value of SOURCE_DIR  "Directory not exists or inaccessible " ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Where the message are displaying? What firs: Shutting down or displaying? What should be recorded in log file?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Not existed disk as DESTINATION_DIR.
+1. Launch the app with SOURCE_DIR, DESTINATION_DIR.
+   A disk  isn't existed on the computer is spesified as DESTINATION_DIR
+   SOURCE_DIR any folder on the computer with some files inside.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Shutting down of application and displaying standard usage-message  : “USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME "+ messsage at the next format :  SOURCE_DIR value of SOURCE_DIR  "Directory not exists or inaccessible". +  DESTINATION_DIR value of DESTINATION_DIR  "Directory not exists or inaccessible ". ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Where the message are displaying? What firs: Shutting down or displaying? What should be recorded in log file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">?) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Both parameters is not existed.
+1. Launch the app with SOURCE_DIR, DESTINATION_DIR.
+  They are directories not existed on the computer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No parameter is determined.
+1.Launch the app determining no parameters at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURCE_DIR and DESTINATION_DIR is the same directory.
+1. Determine SOURCE_DIR as a folder with  TXT,HTML,MD files with each encording:WIN1251, CP866, KOI8R. 
+2.  Determine DESTINATION_DIR as a path to SOURCE_DIR directory.
+3. Launch the app with the SOURCE_DIR, DESTINATION_DIR.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1.Shutting down of application and displaying standard usage-message  : “USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME”  (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>The massege is in concole or as window? Where the message are displaying? What firs: Shutting down or displaying?What should be recorded in log file?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>DESTINATION_DIR is inside the SOURCE_DIR .
+1. Determine SOURCE_DIR as a folder with TXT,HTML,MD files with each encording:WIN1251, CP866, KOI8R and any folder inside.
+2.  Determine DESTINATION_DIR as the folder in SOURCE_DIR directory.
+3. Launch the app with the SOURCE_DIR, DESTINATION_DIR.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+3. Displaying an error message "Destination dir may not reside within source dir tree ". ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Where the message are displaying?  What should be recorded in log file? Should the app is sutting down or has another reaction to the error?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+3. Displaying an error message "Destination dir may not reside within source dir tree ". (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Where the message are displaying?  What should be recorded in log file? Should the app is sutting down or has another reaction to the error?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>the subdir dir of Sourse</t>
+  </si>
+  <si>
+    <t>Sourse dir is the sub dir of Dist. dir (no the point with exp.res. in requirements)</t>
+  </si>
+  <si>
+    <t>непонятные символы в названии документа</t>
+  </si>
+  <si>
+    <t>на арабском наз папки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURCE_DIR  is a folder with encoding in  name.
+Prep.: Create a folder "e4ytrrsuzhghhgaTYDIIDZ2&amp;()п░п⌡п©п╬п╡я─п╢1369=-0". (It is "e4ytrrsuzhghhgaTYDIIDZ2&amp;?*()АЛповрд1369/=-0" at KOI8R encoding.)
+1. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURCE_DIR, DESTINATION_DIR and  LOG_FILE_NAME have name in Russian and English and numbers.
+Prep.: -: Create any folder as SOURCE_DIR with  TXT,HTML,MD files with name in English with  contain each encording:WIN1251, CP866, KOI8R. 
+  DESTINATION_DIR. It isn't  inside the source directory or any its subdirectories. Name of the folder consist of  Russian and English letters and numbers.
+  Name of LOG_FILE_NAME consist of  Russian and English letters and numbers.
+          1. Launch the app with the folder as SOURCE_DIR, DESTINATION_DIR, LOG_FILE_NAME
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. -Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
+    - New log  file  is created in the folder, there File Converter is loccated with exactly the name, specified as parameter.
+    - The log fail containes recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.
+    - Preveous log file do not contain new record.
+    -All files from SOURCE_DIR is in DESTINATION_DIR (They schould be copping or replaced?) WIN1251, CP866, KOI8R encoding   is converted in UTF8 (readable text is in all files)</t>
+  </si>
+  <si>
+    <t>1. -Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
+    - File"باللغة العربية الجديدة....log" is created in the folder, there File Converter is loccated.
+    -"باللغة العربية الجديدة....log"containes recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.
+    - Preveous log file do not contain new record.
+    -All files from SOURCE_DIR is in DESTINATION_DIR (They schould be copping or replaced?) WIN1251, CP866, KOI8R encoding   is converted in UTF8 (readable text is in all files)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOURCE_DIR, DESTINATION_DIR and  LOG_FILE_NAME have name  in arabic.
+Prep.: -: Create any folder as SOURCE_DIR named as "الاسم باللغة العربية"( in arabic)  with  TXT,HTML,MD files with name in English with  contain each encording:WIN1251, CP866, KOI8R. 
+  DESTINATION_DIR. It isn't  inside the source directory or any its subdirectories. the name of the dir is also in arabic "الاسم باللغة العربية".
+  LOG_FILE_NAME - "باللغة العربية الجديدة..."
+          1. Launch the app with the folders as SOURCE_DIR, DESTINATION_DIR and with "باللغة العربية الجديدة..." as  LOG_FILE_NAME.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Input of all parameters without separators.
+1. Launch the app with SOURCE_DIR, DESTINATION_DIR, LOG_FILE_NAME without separators between the parameters. (the situation looked like: SOURCE_DIRDESTINATION_DIRLOG_FILE_NAME) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">The directories - pathes to any folders. LOG_FILE_NAME - any log file name.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Req.: DS-2.4.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Input of all parameters with separator as ", ".
+1. Launch the app with SOURCE_DIR, DESTINATION_DIR, LOG_FILE_NAME with separator ", " between the parameters. (the situation looked like: SOURCE_DIR,  DESTINATION_DIR, LOG_FILE_NAME) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>The directories - pathes to any folders. LOG_FILE_NAME - any log file name.
+Req.: DS-2.4.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Shutting down of application and displaying standard usage-message  : “USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME " + messsage at the next format : SOURCE_DIR value of SOURCE_DIR(SOURCE_DIRDESTINATION_DIRLOG_FILE_NAME - in this case)  + message (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>check with the customer)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Where the message are displaying? What firs: Shutting down or displaying? What should be recorded in log file?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Shutting down of application and displaying standard usage-message  : “USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME " + messsage  (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>check with the custom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Where the message are displaying? What firs: Shutting down or displaying? What should be recorded in log file?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Check with costumer!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Shutting down of application and displaying standard usage-message  : “USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME " + messsage  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(check with the customer)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Where the message are displaying? What firs: Shutting down or displaying? What should be recorded in log file?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Input of all parameters  with"     " (5 *spacebars) as a separator.
+1. Launch the app with SOURCE_DIR, DESTINATION_DIR, LOG_FILE_NAME with separator "     " (5 *spacebars) between the parameters. (the situation looked like: SOURCE_DIR     DESTINATION_DIR      LOG_FILE_NAME) The directories - pathes to any folders. LOG_FILE_NAME - any log file name.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Req.: DS-2.4.</t>
+    </r>
+  </si>
+  <si>
+    <t>чеклист отдельный или в смоук?????</t>
   </si>
 </sst>
 </file>
@@ -1398,14 +2082,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1498,8 +2174,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1508,12 +2191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -1567,6 +2251,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,18 +2392,18 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1752,40 +2448,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1795,26 +2495,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1827,23 +2539,23 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
@@ -1855,39 +2567,66 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="20% — акцент2" xfId="2" builtinId="34"/>
+    <cellStyle name="20% — акцент2" xfId="1" builtinId="34"/>
     <cellStyle name="20% — акцент4" xfId="7" builtinId="42"/>
     <cellStyle name="20% — акцент5" xfId="9" builtinId="46"/>
     <cellStyle name="20% — акцент6" xfId="10" builtinId="50"/>
+    <cellStyle name="40% — акцент2" xfId="2" builtinId="35"/>
     <cellStyle name="40% — акцент3" xfId="4" builtinId="39"/>
     <cellStyle name="40% — акцент4" xfId="8" builtinId="43"/>
     <cellStyle name="60% — акцент2" xfId="3" builtinId="36"/>
     <cellStyle name="60% — акцент3" xfId="5" builtinId="40"/>
     <cellStyle name="Акцент4" xfId="6" builtinId="41"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2218,48 +2957,48 @@
         <v>7</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="28"/>
+        <v>38</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="29"/>
       <c r="H2" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>34</v>
+      <c r="G4" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -2275,71 +3014,71 @@
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="2:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="33"/>
+      <c r="E8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="33"/>
+      <c r="E9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="33"/>
+      <c r="E10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D11" s="30" t="s">
-        <v>36</v>
+      <c r="D11" s="32" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -2355,12 +3094,12 @@
         <v>10</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -2370,22 +3109,22 @@
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2405,9 +3144,9 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="64" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="64" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2455,19 +3194,19 @@
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>99</v>
+      <c r="E2" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="14"/>
     </row>
@@ -2477,56 +3216,59 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>108</v>
+        <v>90</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="D7" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
+      <c r="E8" s="75" t="s">
+        <v>125</v>
+      </c>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2690,10 +3432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K38"/>
+  <dimension ref="A2:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2707,187 +3449,183 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="37"/>
       <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="72"/>
+      <c r="A3" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="16" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="72"/>
+      <c r="A5" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="16" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="74"/>
+      <c r="E6" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="74"/>
+      <c r="E7" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="72"/>
-      <c r="E6" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="65"/>
-      <c r="E7" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="66"/>
+      <c r="A9" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="66"/>
+      <c r="A10" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="67"/>
+      <c r="A11" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="67"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="68"/>
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="68"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="68"/>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="76"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="76"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -2896,31 +3634,31 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="68"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="76"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="69"/>
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="76"/>
       <c r="D22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -2928,170 +3666,167 @@
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="30"/>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="76"/>
       <c r="D24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="68"/>
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="81"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="76"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="F27" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="76"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="76"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="70"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="70"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B32" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="72"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="72" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="70"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="68"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="68"/>
-      <c r="F27" s="16" t="s">
+      <c r="B35" s="61" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="68"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="68"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="68"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="68"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="70"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="70"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="68"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="71"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="71"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="71"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="71"/>
+      <c r="C35" s="73"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="74"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="74"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="74"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A6:B6"/>
@@ -3106,11 +3841,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3119,8 +3854,8 @@
     <col min="2" max="2" width="9.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="45.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="66.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="59.140625" style="10" customWidth="1"/>
     <col min="7" max="7" width="16" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -3153,178 +3888,370 @@
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>90</v>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="C3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
       <c r="C4" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="68"/>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>120</v>
+        <v>109</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="C6" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="C7" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="C8" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="C9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="C10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="C12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" s="86" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="85"/>
+      <c r="C13" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="87"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="C14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="G18" s="15"/>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="C16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="C17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="C18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="79" t="s">
+        <v>137</v>
+      </c>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
+      <c r="C21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
+      <c r="C22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
+      <c r="C23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="5" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
+      <c r="C24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
+      <c r="E25" s="83" t="s">
+        <v>154</v>
+      </c>
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3402,6 +4329,18 @@
     <row r="44" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="G47" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/test_cases_template.xlsx
+++ b/test_cases_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="602" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="602" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist Smoke test" sheetId="5" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
   <si>
     <t>Requirements No.</t>
   </si>
@@ -307,9 +307,6 @@
     <t>адекватно завершать работу</t>
   </si>
   <si>
-    <t>outputting log (if necessary)</t>
-  </si>
-  <si>
     <t>Shutting down applying Ctrl+C</t>
   </si>
   <si>
@@ -380,9 +377,6 @@
   </si>
   <si>
     <t>нет диска</t>
-  </si>
-  <si>
-    <t>rush</t>
   </si>
   <si>
     <t>root</t>
@@ -464,9 +458,6 @@
     <t>seporators as ","</t>
   </si>
   <si>
-    <t>ten spasebars seporator</t>
-  </si>
-  <si>
     <t>nothing</t>
   </si>
   <si>
@@ -488,12 +479,6 @@
     <t>empty dir</t>
   </si>
   <si>
-    <t>название файла на англ для каждого формата</t>
-  </si>
-  <si>
-    <t>название файла на русском для каждого формата</t>
-  </si>
-  <si>
     <t>only one parameter</t>
   </si>
   <si>
@@ -513,12 +498,6 @@
   </si>
   <si>
     <t xml:space="preserve">/ </t>
-  </si>
-  <si>
-    <t>недопустимый формат кодировки</t>
-  </si>
-  <si>
-    <t>недопустимый формат документа</t>
   </si>
   <si>
     <t>ввести недопустимое имя</t>
@@ -574,18 +553,6 @@
   </si>
   <si>
     <t>File with size less then 50 MB</t>
-  </si>
-  <si>
-    <t>файл без текста но с кодировкой допустимой</t>
-  </si>
-  <si>
-    <t>файл без текста но с кодировкой недопустимой</t>
-  </si>
-  <si>
-    <t>несколько кодировок в файле одновременно проверяемых прил</t>
-  </si>
-  <si>
-    <t>log file name указано,но не в той папке этот файл, прил должно созд новый</t>
   </si>
   <si>
     <t>The third sycle Sourse dir - name in RusEngl;
@@ -764,33 +731,6 @@
     <t>DS2.2 прил закрываетсяя</t>
   </si>
   <si>
-    <r>
-      <t>3.  -Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
-     - All *.txt files from SOURCE_DIR is in DESTINATION_DIR (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>They schould be copping or replaced?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) Encoding WIN1251, CP866, KOI8R  is converted in UTF8 (readable text is in all files). Recult files is with *.txt expenction.  
-    - File "Result.log" contained new recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.</t>
-    </r>
-  </si>
-  <si>
     <t>DS-5.1</t>
   </si>
   <si>
@@ -871,52 +811,6 @@
   </si>
   <si>
     <t>SOURCE_DIR</t>
-  </si>
-  <si>
-    <r>
-      <t>Specified log file nameis  not exists in the directory,where File Converter is located.
-Prep.:Delete preveous log file.
-1. Create new log file in a folder whrere File Convertter is not l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ocatted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 
-2. Launch the app with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>correct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> SOURCE_DIR (there is TXT/HTML/MD files with WIN1251, CP866, KOI8R encoding)  and DESTINATION_DIR, as a log file determine name of  file,created in step 1.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1010,10 +904,6 @@
 Prep.: Create any folder as SOURCE_DIR with  TXT,HTML,MD files with each encording:WIN1251, CP866, KOI8R
 1.Launch the app determine only the SOURCE_DIR as parameter.
 </t>
-  </si>
-  <si>
-    <t>Only one parameter is determined- an empty directory.
-1.Launch the app with one parameter - emty directory.</t>
   </si>
   <si>
     <t xml:space="preserve">Four parameters are determined.
@@ -1028,197 +918,6 @@
     <t>files to convert</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Converting TXT format files in target encoding. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Prep.: Unzip an archive in attacments. Folders "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SoursDir</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>DistinDir</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">" will be there.
-1. Create a log file "Result1.log"  in the folder, where File Converter is locatted.
-2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder, for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - folders in attechments. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SOURCE_DIR containes 3 txt files in Rus and Engl+имя   файла на допустимой кодировке</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">). 
-3. Execute converting.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>At the first sycle Sourse dir - name in rus;
-                               Dist gir - name in engl.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">   ЭТИ ПАПКИ СОЗДАТЬ, кол файлов такое же как выделено и имена папок такие же</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Converting HTML format files in target encoding. 
-Prep.: Unzip an archive in attacments. Folders "SoursDir", "DistinDir" will be there.
-1. Create a log file "Результ1"  in the folder, where File Converter is locatted.
-2. Rename Folders "SoursDir", "DistinDir" from uziped archive to folders with name:                     SoursDir - name in rus+numbs;
-                               DistinDir - name in eng+numb.
-2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder ( (the path should be inputed using "Ctrl+V" - copping path from Total Commander or simelar way), for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - unziped folders and renamed. SOURCE_DIR containes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3 html files  in Rus and Engl+ имя на поддерживаемой кодировке</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">). 
-3. Execute converting.
-                     </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Converting MD format files in target encoding. 
-Prep.: Unzip an archive in attacments. Folders "SoursDir", "DistinDir" will be there.
-1. Delite previous log file (if  it exists) in the folder, the File Converter is loccated.Don't create new log file.
-2. Rename Folders "SoursDir", "DistinDir" from uziped archive to folders with name:                     SoursDir - name in eng;
-                               DistinDir - name in rus.
-2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder (the path should be inputed manually), for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - unziped folders and renamed. SOURCE_DIR containes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3 md files  in Rus and Engl + поддерживаемая кодировка</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">). 
-3. Execute converting.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>название файла на допустимой кодировке для каждого формата</t>
-  </si>
-  <si>
     <t>File encoding</t>
   </si>
   <si>
@@ -1230,9 +929,6 @@
 </t>
   </si>
   <si>
-    <t>существующая папка, но имя неверно</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
 1.-Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
@@ -1368,9 +1064,6 @@
     </r>
   </si>
   <si>
-    <t>Закрытие с контрал С добавить!!!!!!</t>
-  </si>
-  <si>
     <r>
       <t>1.Shutting down of application and displaying standard usage-message  :“USAGE converter.phar SOURCE_DIR DESTINATION_DIR LOG_FILE_NAME”  (</t>
     </r>
@@ -1446,9 +1139,6 @@
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
-  </si>
-  <si>
-    <t>В корне файла директории</t>
   </si>
   <si>
     <r>
@@ -1731,12 +1421,6 @@
   </si>
   <si>
     <t>на арабском наз папки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOURCE_DIR  is a folder with encoding in  name.
-Prep.: Create a folder "e4ytrrsuzhghhgaTYDIIDZ2&amp;()п░п⌡п©п╬п╡я─п╢1369=-0". (It is "e4ytrrsuzhghhgaTYDIIDZ2&amp;?*()АЛповрд1369/=-0" at KOI8R encoding.)
-1. 
-</t>
   </si>
   <si>
     <t xml:space="preserve">SOURCE_DIR, DESTINATION_DIR and  LOG_FILE_NAME have name in Russian and English and numbers.
@@ -1979,14 +1663,52 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Input of all parameters  with"     " (5 *spacebars) as a separator.
-1. Launch the app with SOURCE_DIR, DESTINATION_DIR, LOG_FILE_NAME with separator "     " (5 *spacebars) between the parameters. (the situation looked like: SOURCE_DIR     DESTINATION_DIR      LOG_FILE_NAME) The directories - pathes to any folders. LOG_FILE_NAME - any log file name.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
+    <t>чеклист отдельный или в смоук?????</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+3.  -Output in console about logging appeares and has the form YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result.
+     - All *.txt files from SOURCE_DIR is in DESTINATION_DIR (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>They schould be copping or replaced?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) Encoding WIN1251, CP866, KOI8R  is converted in UTF8 (readable text is in all files). Recult files is with *.txt expenction.  
+    - File "Result.log" contained new recourd with format YYYY-MM-DD HH:II :SS operation_name operation_parameters operation_result. The record is the same as in console one.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Converting TXT format files in target encoding. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -1997,6 +1719,187 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Prep.: Unzip an archive in attacments. Folders "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SoursDir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>DistinDir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">" will be there.
+1. Create a log file "Result1.log"  in the folder, where File Converter is locatted.
+2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder, for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - folders in attechments. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SOURCE_DIR containes 3 txt files in Rus and Engl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">). 
+3. Execute converting.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>At the first sycle Sourse dir - name in rus;
+                               Dist gir - name in engl.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">   ЭТИ ПАПКИ СОЗДАТЬ, кол файлов такое же как выделено и имена папок такие же</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Converting HTML format files in target encoding. 
+Prep.: Unzip an archive in attacments. Folders "SoursDir", "DistinDir" will be there.
+1. Create a log file "Результ1"  in the folder, where File Converter is locatted.
+2. Rename Folders "SoursDir", "DistinDir" from uziped archive to folders with names:                    SoursDir - name in rus+numbs;
+                               DistinDir - name in eng+numb.
+2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder ( (the path should be inputed using "Ctrl+V" - copping path from Total Commander or simelar way), for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - unziped folders and renamed. SOURCE_DIR containes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3 html files  in Rus and Engl+ имя на поддерживаемой кодировке</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">). 
+3. Execute converting.
+                     </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Converting MD format files in target encoding. 
+Prep.: Unzip an archive in attacments. Folders "SoursDir", "DistinDir" will be there.
+1. Delite previous log file (if  it exists) in the folder, the File Converter is loccated. Don't create new log file.
+2. Rename Folders "SoursDir", "DistinDir" from uziped archive to folders with name:                     SoursDir - name in eng;
+                               DistinDir - name in rus.
+2. Launch the app  with designated as SOURCE_DIR  a path to "SoursDir" folder (the path should be inputed manually), for DESTINATION_DIR - "DistinDir" ( "SoursDir", "DistinDir" - unziped folders and renamed. SOURCE_DIR containes 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> md files  in Rus and Engl </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">). 
+3. Execute converting.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Input of all parameters  with"     " (5 *spacebars) as a separator.
+1. Launch the app with SOURCE_DIR, DESTINATION_DIR, LOG_FILE_NAME with separator "     " (5 *spacebars) between the parameters. (the situation looks like: SOURCE_DIR     DESTINATION_DIR      LOG_FILE_NAME) The directories - pathes to any folders. LOG_FILE_NAME - any log file name.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
@@ -2005,18 +1908,178 @@
     </r>
   </si>
   <si>
-    <t>чеклист отдельный или в смоук?????</t>
+    <t>нет в рекварементс.</t>
+  </si>
+  <si>
+    <t>Input with Ctrl+V and manually</t>
+  </si>
+  <si>
+    <t>name of file in Eng. for each format</t>
+  </si>
+  <si>
+    <t>Unsepported encoding of file</t>
+  </si>
+  <si>
+    <r>
+      <t>Specified log file name is  not exists in the directory,where File Converter is located.
+Prep.:Delete preveous log file.
+1. Create new log file in a folder whrere File Convertter is not l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ocatted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. 
+2. Launch the app with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>correct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> SOURCE_DIR (there is TXT/HTML/MD files with WIN1251, CP866, KOI8R encoding)  and DESTINATION_DIR, as a log file determine name of  file,created in step 1.</t>
+    </r>
+  </si>
+  <si>
+    <t>Only one parameter is determined- an empty directory.
+1.Launch the app with one parameter - emty directory (determine a path to any empty folder).</t>
+  </si>
+  <si>
+    <t>Unsepported file format</t>
+  </si>
+  <si>
+    <t>A file without text but have encoding</t>
+  </si>
+  <si>
+    <t>файл без текста но с кодировкой недопустимой A file without text, but contain unsepported encoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several encoding(sepported) in a document </t>
+  </si>
+  <si>
+    <t>five spasebars seporator</t>
+  </si>
+  <si>
+    <t>log file name determined, but the file isn't in the folder, there file converter is loccated.</t>
+  </si>
+  <si>
+    <t>rus</t>
+  </si>
+  <si>
+    <t>Shutting down</t>
+  </si>
+  <si>
+    <t>Shutting down by "Ctrl + C"
+1.Launch the app. Applying Ctrl+C  to the console window.
+Req.: UR-1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2.Shutting down of application. (Scould the app shut down consol ????</t>
+  </si>
+  <si>
+    <t>Document size</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1.All files from SOURCE_DIR is in DESTINATION_DIR (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>They schould be copping or replaced?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) WIN1251, CP866, KOI8R encoding   is converted in UTF8 (readable text is in all files)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Converting files 49,999 MB.
+Prep.: Create txt, md, html filese with WIN1251, CP866, KOI8R exactly 49,999 MB.
+1.  Plase at SOURCE_DIR the files.
+ 2. Start the app with correct parameters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converting files 50 MB.
+Prep.: Create txt, md, html filese with WIN1251, CP866, KOI8R exactly 50 MB.
+1.  Plase at SOURCE_DIR the files.
+ 2. Start the app with correct parameters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converting files 50,001MB.
+Prep.: Create txt, md, html filese with WIN1251, CP866, KOI8R exactly 50,001 MB.
+1.  Plase at SOURCE_DIR the files.
+ 2. Start the app with correct parameters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Application ignore files. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2182,7 +2245,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2263,6 +2326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2392,226 +2461,239 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2931,7 +3013,7 @@
   <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2946,10 +3028,10 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -2957,48 +3039,48 @@
         <v>7</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="F2" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="58"/>
       <c r="H2" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>161</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="G4" s="91" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -3009,76 +3091,76 @@
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="2:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D7" s="22"/>
       <c r="E7" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>40</v>
+      <c r="H7" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="35"/>
+        <v>27</v>
+      </c>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="35"/>
+        <v>27</v>
+      </c>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="35"/>
+        <v>27</v>
+      </c>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D11" s="32" t="s">
-        <v>37</v>
+      <c r="D11" s="28" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -3086,45 +3168,35 @@
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>98</v>
-      </c>
+      <c r="C13" s="16"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3144,9 +3216,9 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="64" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="64" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3186,27 +3258,27 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="26" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G3" s="14"/>
     </row>
@@ -3216,58 +3288,64 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="E8" s="75" t="s">
-        <v>125</v>
+      <c r="D8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>164</v>
       </c>
       <c r="G8" s="14"/>
     </row>
@@ -3432,10 +3510,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K39"/>
+  <dimension ref="A2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3449,183 +3527,179 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="37"/>
+      <c r="A2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="74"/>
+      <c r="A3" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="16" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="45"/>
+      <c r="E6" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="45"/>
+      <c r="E7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="74"/>
-      <c r="E6" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="74"/>
-      <c r="E7" s="16" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="74"/>
+      <c r="A9" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="74"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="69"/>
+      <c r="A11" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="90"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="69"/>
+      <c r="A12" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="90"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="69"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="69"/>
+      <c r="A14" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="69"/>
+      <c r="A15" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="69"/>
+      <c r="A16" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="73"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="74"/>
+      <c r="A17" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="76"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>45</v>
+      <c r="A19" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="76"/>
+        <v>49</v>
+      </c>
+      <c r="C19" s="47"/>
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="76"/>
+        <v>49</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="47"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -3634,17 +3708,17 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="76"/>
+        <v>113</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="47"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -3653,12 +3727,12 @@
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="76"/>
+        <v>50</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="47"/>
       <c r="D22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -3667,24 +3741,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="16" t="s">
-        <v>129</v>
-      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="76"/>
+      <c r="A24" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="47"/>
       <c r="D24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -3692,120 +3764,139 @@
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="76"/>
+      <c r="A25" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="88"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="76"/>
+        <v>44</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="47"/>
     </row>
     <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="76"/>
+        <v>46</v>
+      </c>
+      <c r="C27" s="47"/>
       <c r="F27" s="16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="76"/>
+      <c r="A28" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="81"/>
+      <c r="C28" s="47"/>
     </row>
     <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="76"/>
+        <v>129</v>
+      </c>
+      <c r="C29" s="47"/>
     </row>
     <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="70"/>
+      <c r="A30" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="79"/>
+      <c r="C30" s="41"/>
     </row>
     <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="70"/>
+      <c r="A31" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="41"/>
     </row>
     <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="43"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="75"/>
+      <c r="C33" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="75"/>
+      <c r="C34" s="41"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="72"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="72" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="70"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="73"/>
+      <c r="B35" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="44"/>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="74"/>
+      <c r="A36" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="45"/>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="74"/>
+      <c r="A37" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="64"/>
+      <c r="C37" s="45"/>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="74"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="45"/>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="48"/>
+      <c r="A39" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="66"/>
       <c r="C39" s="18"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A8:B8"/>
@@ -3813,24 +3904,15 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3843,9 +3925,9 @@
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3885,381 +3967,417 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="56"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="C3" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="68"/>
+      <c r="A5" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="39"/>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="C6" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="C9" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" s="86" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="85"/>
-      <c r="C13" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="86" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="87"/>
+        <v>136</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="54" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="53"/>
+      <c r="C13" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="C14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="C16" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="C17" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="C18" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="79" t="s">
-        <v>137</v>
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>116</v>
       </c>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="C21" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="C22" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="C23" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="C24" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
-      <c r="E25" s="83" t="s">
-        <v>154</v>
+      <c r="C25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
+      <c r="C26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
+      <c r="C27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4343,7 +4461,7 @@
       <c r="G47" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
